--- a/2_Formulas_and_Functions/4_Math_Functions/4_Round.xlsx
+++ b/2_Formulas_and_Functions/4_Math_Functions/4_Round.xlsx
@@ -1,26 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\4_Math_Functions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE43851-031D-45EB-A281-26E68F47EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="Final" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Junior Data Analyst</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>Data Analyst I</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Data Analyst II</t>
+  </si>
+  <si>
+    <t>Company C</t>
+  </si>
+  <si>
+    <t>Senior Data Analyst</t>
+  </si>
+  <si>
+    <t>Company D</t>
+  </si>
+  <si>
+    <t>Percent Change (Formula)</t>
+  </si>
+  <si>
+    <t>Percent Change (Rounded)</t>
+  </si>
+  <si>
+    <t>Yearly Salary</t>
+  </si>
+  <si>
+    <t>Hourly Salary</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +98,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +137,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +435,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138ABDEE-C724-48F4-B4BA-6B1BC291CEC2}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>55000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>26.44</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>65000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31.25</v>
+      </c>
+      <c r="E3" s="5">
+        <f>(D3-D2)/D2</f>
+        <v>0.18192133131618754</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>75000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>36.06</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E5" si="0">(D4-D3)/D3</f>
+        <v>0.15392000000000008</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>85000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13338879645036036</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>55000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>26.44</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>65000</v>
+      </c>
+      <c r="D3" s="10">
+        <v>31.25</v>
+      </c>
+      <c r="E3" s="5">
+        <f>(D3-D2)/D2</f>
+        <v>0.18192133131618754</v>
+      </c>
+      <c r="F3" s="9">
+        <f>((ROUND(D3,0)-ROUND(D2,0))/ROUND(D2,0))</f>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>75000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>36.06</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E5" si="0">(D4-D3)/D3</f>
+        <v>0.15392000000000008</v>
+      </c>
+      <c r="F4" s="9">
+        <f>((ROUND(D4,0)-ROUND(D3,0))/ROUND(D3,0))</f>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>85000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13338879645036036</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F4:F5" si="1">((ROUND(D5,0)-ROUND(D4,0))/ROUND(D4,0))</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>